--- a/VALOR/Exportación por Lugar de Salida 2016 - Mensual - Editado.xlsx
+++ b/VALOR/Exportación por Lugar de Salida 2016 - Mensual - Editado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aseba\Desktop\DATA Exterior\Exportaciones\FOB\2016\Editado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMERCIO\VALOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{444B2F9F-58F7-4A5A-A171-F8E5FA307B4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A525ED9-9901-4855-9EDB-EDF13EE0D03D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expo LugarSalida FOB 2016" sheetId="2" r:id="rId1"/>
@@ -361,7 +361,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -420,11 +420,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -458,6 +554,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -467,27 +564,430 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="1" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -498,6 +998,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27AC7AD3-B397-40DA-A3DD-C13BD9A1E592}" name="exp_salida_valor_2016" displayName="exp_salida_valor_2016" ref="A1:M57" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="16" tableBorderDxfId="17" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:M57" xr:uid="{F0D30077-22E3-495A-A220-7B6475AFE921}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{90FE57DB-EE7C-4534-8DF1-C4681C77700E}" name="Lugar de Salida (Puerto-Aeropuerto-Avanzada)" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{FF60C03A-45CD-42DF-97F4-DE3F58143C38}" name="Enero - 2016" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{263E6426-5AE1-467A-986F-C6098FE2BDC3}" name="Febrero - 2016" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{4F8253C3-7DFA-4E3C-A7B2-CF985E12FEB4}" name="Marzo - 2016" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{FED04B98-C567-4946-8152-0BD8210AF70F}" name="Abril - 2016" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{4A56F173-27EB-4030-A068-299B66128FC1}" name="Mayo - 2016" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{08C224EB-4EB0-475A-92A1-C072A08F2D96}" name="Junio - 2016" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{1586E531-D683-4B5E-A28A-5B3070AAD00E}" name="Julio - 2016" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{E0914154-862C-42AB-A28D-CF10F822BEFA}" name="Agosto - 2016" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{CAE6CB0B-4173-4289-8EF8-F4A17DDDA5D8}" name="Septiembre - 2016" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{88008D17-89B3-4676-A773-12C44AC54603}" name="Octubre - 2016" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{F2FCD4D3-1FCA-4721-BDA2-40BAAB551DAB}" name="Noviembre - 2016" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{B06AE386-8C00-49A7-890E-5F1FC93F28EC}" name="Diciembre - 2016" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -789,41 +1311,41 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16" t="s">
+      <c r="C3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -867,7 +1389,7 @@
       <c r="N4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="17"/>
+      <c r="O4" s="18"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
@@ -3398,7 +3920,7 @@
   <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection sqref="A1:M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3407,2351 +3929,2354 @@
     <col min="2" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" style="1" customWidth="1"/>
     <col min="8" max="9" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.77734375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" style="1" customWidth="1"/>
     <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="25" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="15">
         <v>307060517.3999998</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="15">
         <v>297683315.8099997</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="15">
         <v>283411010.00999957</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="15">
         <v>364235777.8900001</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="15">
         <v>259924182.46999994</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="15">
         <v>300827667.38999939</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="15">
         <v>244836989.49999997</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2" s="15">
         <v>350505306.30000019</v>
       </c>
-      <c r="J2" s="23">
+      <c r="J2" s="15">
         <v>263663765.87000015</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="15">
         <v>289620178.58999979</v>
       </c>
-      <c r="L2" s="23">
+      <c r="L2" s="15">
         <v>355933925.97000027</v>
       </c>
-      <c r="M2" s="23">
+      <c r="M2" s="20">
         <v>472974110.96000069</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="15">
         <v>242689.34</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="15">
         <v>444343.01</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="15">
         <v>133510.98000000001</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="15">
         <v>19544.2</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="15">
         <v>25001.4</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="15">
         <v>21771.919999999998</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="15">
         <v>14767.189999999999</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="15">
         <v>26833.96</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="15">
         <v>22355.77</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="15">
         <v>20619.510000000002</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="15">
         <v>239041.53</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="20">
         <v>452752.86999999994</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="23">
-        <v>0</v>
-      </c>
-      <c r="C4" s="23">
-        <v>0</v>
-      </c>
-      <c r="D4" s="23">
+      <c r="B4" s="15">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
         <v>6029.31</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="15">
         <v>56862.06</v>
       </c>
-      <c r="F4" s="23">
-        <v>0</v>
-      </c>
-      <c r="G4" s="23">
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
         <v>11467.59</v>
       </c>
-      <c r="H4" s="23">
-        <v>0</v>
-      </c>
-      <c r="I4" s="23">
-        <v>0</v>
-      </c>
-      <c r="J4" s="23">
+      <c r="H4" s="15">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15">
+        <v>0</v>
+      </c>
+      <c r="J4" s="15">
         <v>7666.03</v>
       </c>
-      <c r="K4" s="23">
-        <v>0</v>
-      </c>
-      <c r="L4" s="23">
-        <v>0</v>
-      </c>
-      <c r="M4" s="23">
+      <c r="K4" s="15">
+        <v>0</v>
+      </c>
+      <c r="L4" s="15">
+        <v>0</v>
+      </c>
+      <c r="M4" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="15">
         <v>406694.05999999988</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="15">
         <v>567740.84999999986</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="15">
         <v>937891.30999999994</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="15">
         <v>321878.64</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="15">
         <v>467209.79000000004</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="15">
         <v>296390.53999999998</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="15">
         <v>413547.0199999999</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="15">
         <v>309982.44</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="15">
         <v>235584.63000000006</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="15">
         <v>233222.59999999998</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="15">
         <v>136361.66</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="20">
         <v>219048.54</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="23">
-        <v>0</v>
-      </c>
-      <c r="C6" s="23">
-        <v>0</v>
-      </c>
-      <c r="D6" s="23">
-        <v>0</v>
-      </c>
-      <c r="E6" s="23">
-        <v>0</v>
-      </c>
-      <c r="F6" s="23">
-        <v>0</v>
-      </c>
-      <c r="G6" s="23">
-        <v>0</v>
-      </c>
-      <c r="H6" s="23">
-        <v>0</v>
-      </c>
-      <c r="I6" s="23">
+      <c r="B6" s="15">
+        <v>0</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0</v>
+      </c>
+      <c r="I6" s="15">
         <v>7834.77</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="15">
         <v>1588.73</v>
       </c>
-      <c r="K6" s="23">
-        <v>0</v>
-      </c>
-      <c r="L6" s="23">
-        <v>0</v>
-      </c>
-      <c r="M6" s="23">
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
+      <c r="L6" s="15">
+        <v>0</v>
+      </c>
+      <c r="M6" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="23">
-        <v>0</v>
-      </c>
-      <c r="C7" s="23">
-        <v>0</v>
-      </c>
-      <c r="D7" s="23">
-        <v>0</v>
-      </c>
-      <c r="E7" s="23">
-        <v>0</v>
-      </c>
-      <c r="F7" s="23">
-        <v>0</v>
-      </c>
-      <c r="G7" s="23">
-        <v>0</v>
-      </c>
-      <c r="H7" s="23">
+      <c r="B7" s="15">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
         <v>5400</v>
       </c>
-      <c r="I7" s="23">
-        <v>0</v>
-      </c>
-      <c r="J7" s="23">
-        <v>0</v>
-      </c>
-      <c r="K7" s="23">
-        <v>0</v>
-      </c>
-      <c r="L7" s="23">
-        <v>0</v>
-      </c>
-      <c r="M7" s="23">
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="15">
         <v>379856905.42000002</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="15">
         <v>454502568.48000008</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="15">
         <v>632793267.13</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="15">
         <v>417311189.8599999</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="15">
         <v>463030763.44000006</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="15">
         <v>518379613.87</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="15">
         <v>228879387.49999997</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="15">
         <v>334930065.19999999</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="15">
         <v>366696296.81000006</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="15">
         <v>356770122.85000002</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="15">
         <v>405262114.42000002</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="20">
         <v>577576415.28999996</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="15">
         <v>18191908.399999999</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="15">
         <v>17878107.890000001</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="15">
         <v>23605961.169999998</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="15">
         <v>25510804.659999993</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="15">
         <v>16631758.319999998</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="15">
         <v>15505220.85</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="15">
         <v>13486764.889999997</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="15">
         <v>17742932.160000004</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="15">
         <v>16342211.030000001</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="15">
         <v>17468746.440000001</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="15">
         <v>20401693.739999998</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="20">
         <v>20889820.719999999</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="15">
         <v>1443768.74</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="15">
         <v>7913817.8399999999</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="15">
         <v>4038540.3099999996</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="15">
         <v>1257874.8</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="15">
         <v>7276152.2700000005</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="15">
         <v>6783004.0300000003</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="15">
         <v>11383593.84</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="15">
         <v>11874371.560000001</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="15">
         <v>11285723.470000001</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="15">
         <v>9082596.1099999994</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="15">
         <v>6798556.0999999996</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="20">
         <v>14244426.780000001</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="15">
         <v>20079.03</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="15">
         <v>12027.64</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="15">
         <v>6277685.3200000003</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="15">
         <v>7503470.75</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="15">
         <v>6482093.1200000001</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="15">
         <v>9086818.3699999992</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="15">
         <v>3004678.68</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="15">
         <v>4401.68</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="15">
         <v>2348820.1</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="15">
         <v>3117902.71</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="15">
         <v>3321550.1</v>
       </c>
-      <c r="M11" s="23">
+      <c r="M11" s="20">
         <v>6066510.8899999997</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="15">
         <v>154677636.78000006</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="15">
         <v>66683749.250000007</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="15">
         <v>65538764.109999999</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="15">
         <v>120875849.63000001</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="15">
         <v>80113377.109999999</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="15">
         <v>71487187.429999992</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="15">
         <v>89097724.810000002</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="15">
         <v>54735576.399999999</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="15">
         <v>134436288.87</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="15">
         <v>106607765.47</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="15">
         <v>116537528.09999999</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="20">
         <v>207356875.69000003</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="15">
         <v>260429588.78999999</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="15">
         <v>36298825.079999998</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="15">
         <v>393277769.48000002</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="15">
         <v>124380175.34999999</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="15">
         <v>272827461.67000002</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="15">
         <v>232721791.90000001</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="15">
         <v>271695615.16000003</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="15">
         <v>182293477.83000001</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="15">
         <v>185855054.77000001</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="15">
         <v>262138976.15000001</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="15">
         <v>209276477.65000001</v>
       </c>
-      <c r="M13" s="23">
+      <c r="M13" s="20">
         <v>403224011.86999995</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="15">
         <v>15144130.319999998</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="15">
         <v>20736443.719999999</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="15">
         <v>22582412.5</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="15">
         <v>20644898.509999994</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="15">
         <v>11581379.459999999</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="15">
         <v>21698565.930000007</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="15">
         <v>12764740.739999998</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="15">
         <v>21146124.490000002</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="15">
         <v>19158883.460000001</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="15">
         <v>13861088.520000001</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="15">
         <v>18567899.390000004</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M14" s="20">
         <v>14539592.510000004</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="15">
         <v>2379555.9</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="15">
         <v>4043021.22</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="15">
         <v>4376371.92</v>
       </c>
-      <c r="E15" s="23">
-        <v>0</v>
-      </c>
-      <c r="F15" s="23">
+      <c r="E15" s="15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15">
         <v>3750120.47</v>
       </c>
-      <c r="G15" s="23">
-        <v>0</v>
-      </c>
-      <c r="H15" s="23">
+      <c r="G15" s="15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="15">
         <v>5823652.9900000002</v>
       </c>
-      <c r="I15" s="23">
-        <v>0</v>
-      </c>
-      <c r="J15" s="23">
+      <c r="I15" s="15">
+        <v>0</v>
+      </c>
+      <c r="J15" s="15">
         <v>8478868.9399999995</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="15">
         <v>9068726.8499999996</v>
       </c>
-      <c r="L15" s="23">
-        <v>0</v>
-      </c>
-      <c r="M15" s="23">
+      <c r="L15" s="15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="20">
         <v>8397661.4199999999</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="15">
         <v>10402792.400000002</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="15">
         <v>13025788.350000007</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="15">
         <v>12679295.149999993</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="15">
         <v>11397027.119999997</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="15">
         <v>9504439.6999999993</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="15">
         <v>9485878.4099999927</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="15">
         <v>10668502.759999994</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="15">
         <v>15241767.900000002</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="15">
         <v>8466159.0400000028</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="15">
         <v>9843741.9600000009</v>
       </c>
-      <c r="L16" s="23">
+      <c r="L16" s="15">
         <v>8276720.9699999969</v>
       </c>
-      <c r="M16" s="23">
+      <c r="M16" s="20">
         <v>8102192.3300000029</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="23">
-        <v>0</v>
-      </c>
-      <c r="C17" s="23">
-        <v>0</v>
-      </c>
-      <c r="D17" s="23">
+      <c r="B17" s="15">
+        <v>0</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0</v>
+      </c>
+      <c r="D17" s="15">
         <v>6602131.6800000006</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="15">
         <v>6653472.2800000003</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="15">
         <v>6263158.21</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="15">
         <v>80738695.480000019</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="15">
         <v>39389701.659999996</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="15">
         <v>7812465.25</v>
       </c>
-      <c r="J17" s="23">
-        <v>0</v>
-      </c>
-      <c r="K17" s="23">
+      <c r="J17" s="15">
+        <v>0</v>
+      </c>
+      <c r="K17" s="15">
         <v>7343590.3200000003</v>
       </c>
-      <c r="L17" s="23">
+      <c r="L17" s="15">
         <v>20089198.479999997</v>
       </c>
-      <c r="M17" s="23">
+      <c r="M17" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="23">
-        <v>0</v>
-      </c>
-      <c r="C18" s="23">
+      <c r="B18" s="15">
+        <v>0</v>
+      </c>
+      <c r="C18" s="15">
         <v>705792.93</v>
       </c>
-      <c r="D18" s="23">
-        <v>0</v>
-      </c>
-      <c r="E18" s="23">
-        <v>0</v>
-      </c>
-      <c r="F18" s="23">
-        <v>0</v>
-      </c>
-      <c r="G18" s="23">
-        <v>0</v>
-      </c>
-      <c r="H18" s="23">
-        <v>0</v>
-      </c>
-      <c r="I18" s="23">
-        <v>0</v>
-      </c>
-      <c r="J18" s="23">
-        <v>0</v>
-      </c>
-      <c r="K18" s="23">
-        <v>0</v>
-      </c>
-      <c r="L18" s="23">
-        <v>0</v>
-      </c>
-      <c r="M18" s="23">
+      <c r="D18" s="15">
+        <v>0</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0</v>
+      </c>
+      <c r="I18" s="15">
+        <v>0</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0</v>
+      </c>
+      <c r="L18" s="15">
+        <v>0</v>
+      </c>
+      <c r="M18" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="15">
         <v>20404651.270000003</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="15">
         <v>15954369.01999999</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="15">
         <v>20227641.240000002</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="15">
         <v>20709524.520000018</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="15">
         <v>21965198.02999996</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="15">
         <v>19310994.38000001</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="15">
         <v>14048260.229999989</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="15">
         <v>17882552.969999995</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="15">
         <v>13424499.74</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K19" s="15">
         <v>18903047.350000005</v>
       </c>
-      <c r="L19" s="23">
+      <c r="L19" s="15">
         <v>16241734.309999999</v>
       </c>
-      <c r="M19" s="23">
+      <c r="M19" s="20">
         <v>13243070.370000007</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="15">
         <v>1473886.82</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="15">
         <v>2233280.0699999998</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="15">
         <v>1788067.61</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="15">
         <v>2389175.0800000005</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="15">
         <v>2608672.1799999997</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="15">
         <v>1100096.3100000003</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="15">
         <v>2211179.6199999996</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="15">
         <v>3054196.3</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="15">
         <v>3649439.55</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K20" s="15">
         <v>3768537.9499999997</v>
       </c>
-      <c r="L20" s="23">
+      <c r="L20" s="15">
         <v>4890972.78</v>
       </c>
-      <c r="M20" s="23">
+      <c r="M20" s="20">
         <v>3185379.8</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="15">
         <v>83966419.510000005</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="15">
         <v>57122055.569999993</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="15">
         <v>89488657.939999998</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="15">
         <v>70292162.329999998</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="15">
         <v>48820548</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="15">
         <v>52555425.310000002</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="15">
         <v>28422507.07</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="15">
         <v>78362959.060000002</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="15">
         <v>75915926.090000004</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="15">
         <v>48883825.75</v>
       </c>
-      <c r="L21" s="23">
+      <c r="L21" s="15">
         <v>74072925.349999994</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M21" s="20">
         <v>99605842.599999994</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="15">
         <v>306999316.50000018</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="15">
         <v>224639826.29000011</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="15">
         <v>263788030.03</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="15">
         <v>271752144.62</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="15">
         <v>214001620.82999992</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="15">
         <v>201291903.50000003</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="15">
         <v>175011885.54999998</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="15">
         <v>237240656.45999998</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="15">
         <v>187863487.18000001</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="15">
         <v>177183162.30000004</v>
       </c>
-      <c r="L22" s="23">
+      <c r="L22" s="15">
         <v>210755528.91000009</v>
       </c>
-      <c r="M22" s="23">
+      <c r="M22" s="20">
         <v>286731811.10999978</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="15">
         <v>3174305</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="15">
         <v>3483257.8</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="15">
         <v>1181729.74</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="15">
         <v>3463622.08</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="15">
         <v>9328480.1400000006</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="15">
         <v>5906238.1799999997</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="15">
         <v>3989051.58</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="15">
         <v>2804093.36</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="15">
         <v>4042231.65</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="15">
         <v>5892315.4400000004</v>
       </c>
-      <c r="L23" s="23">
+      <c r="L23" s="15">
         <v>5142767.9399999995</v>
       </c>
-      <c r="M23" s="23">
+      <c r="M23" s="20">
         <v>6203377.1299999999</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="15">
         <v>4694686.5999999996</v>
       </c>
-      <c r="C24" s="23">
-        <v>0</v>
-      </c>
-      <c r="D24" s="23">
+      <c r="C24" s="15">
+        <v>0</v>
+      </c>
+      <c r="D24" s="15">
         <v>5266053.5999999996</v>
       </c>
-      <c r="E24" s="23">
-        <v>0</v>
-      </c>
-      <c r="F24" s="23">
+      <c r="E24" s="15">
+        <v>0</v>
+      </c>
+      <c r="F24" s="15">
         <v>13342769.380000001</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="15">
         <v>7010208.6600000001</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="15">
         <v>7268825.29</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="15">
         <v>4796431.5</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="15">
         <v>5362098.21</v>
       </c>
-      <c r="K24" s="23">
+      <c r="K24" s="15">
         <v>13005824.720000001</v>
       </c>
-      <c r="L24" s="23">
+      <c r="L24" s="15">
         <v>8902088.9900000002</v>
       </c>
-      <c r="M24" s="23">
+      <c r="M24" s="20">
         <v>6937986.6699999999</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="15">
         <v>61945463.169999987</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="15">
         <v>56309549.630000003</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="15">
         <v>9067691.8399999999</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="15">
         <v>50075897.710000001</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="15">
         <v>40046076.07</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="15">
         <v>38656170.619999997</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="15">
         <v>26865004.140000001</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="15">
         <v>41950143.570000008</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="15">
         <v>39638474.159999996</v>
       </c>
-      <c r="K25" s="23">
+      <c r="K25" s="15">
         <v>40635832.510000005</v>
       </c>
-      <c r="L25" s="23">
+      <c r="L25" s="15">
         <v>65555407.870000005</v>
       </c>
-      <c r="M25" s="23">
+      <c r="M25" s="20">
         <v>49512615.019999996</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="15">
         <v>1643360.72</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="15">
         <v>6591903.8400000008</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="15">
         <v>4182144.6000000006</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="15">
         <v>8135949.4600000009</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="15">
         <v>10530456.619999999</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="15">
         <v>7961868.8100000005</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="15">
         <v>8563386.459999999</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="15">
         <v>9892482.1800000016</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="15">
         <v>9301890.1400000006</v>
       </c>
-      <c r="K26" s="23">
+      <c r="K26" s="15">
         <v>8653111.2699999996</v>
       </c>
-      <c r="L26" s="23">
+      <c r="L26" s="15">
         <v>6411950.9000000004</v>
       </c>
-      <c r="M26" s="23">
+      <c r="M26" s="20">
         <v>4758612.8600000003</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="15">
         <v>84579554.870000005</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="15">
         <v>58501212.180000007</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="15">
         <v>74555393.920000032</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="15">
         <v>79473623.549999997</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="15">
         <v>96783559.400000006</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="15">
         <v>76479823.310000002</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="15">
         <v>100890206.49999997</v>
       </c>
-      <c r="I27" s="23">
+      <c r="I27" s="15">
         <v>59052290.25999999</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J27" s="15">
         <v>91676455.349999979</v>
       </c>
-      <c r="K27" s="23">
+      <c r="K27" s="15">
         <v>35967229.74000001</v>
       </c>
-      <c r="L27" s="23">
+      <c r="L27" s="15">
         <v>82077750.520000011</v>
       </c>
-      <c r="M27" s="23">
+      <c r="M27" s="20">
         <v>77918881.409999996</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="15">
         <v>307308733.54999989</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="15">
         <v>226889271.9900001</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="15">
         <v>233209220.18000001</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="15">
         <v>197645561.27000001</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F28" s="15">
         <v>220518511.02000004</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G28" s="15">
         <v>219354983.11000007</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="15">
         <v>266616071.69</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I28" s="15">
         <v>248869221.70000014</v>
       </c>
-      <c r="J28" s="23">
+      <c r="J28" s="15">
         <v>233501374.81999993</v>
       </c>
-      <c r="K28" s="23">
+      <c r="K28" s="15">
         <v>217835197.46999991</v>
       </c>
-      <c r="L28" s="23">
+      <c r="L28" s="15">
         <v>261044972.76000002</v>
       </c>
-      <c r="M28" s="23">
+      <c r="M28" s="20">
         <v>310185826.2899999</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="15">
         <v>90502936.289999962</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="15">
         <v>93949554.530000091</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="15">
         <v>107170448.67000005</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="15">
         <v>110361765.93000004</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="15">
         <v>112811715.92000011</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="15">
         <v>81863621.77000013</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="15">
         <v>92933289.000000015</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="15">
         <v>132166148.43999982</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J29" s="15">
         <v>120321413.48000002</v>
       </c>
-      <c r="K29" s="23">
+      <c r="K29" s="15">
         <v>103993160.37000012</v>
       </c>
-      <c r="L29" s="23">
+      <c r="L29" s="15">
         <v>112021783.65000001</v>
       </c>
-      <c r="M29" s="23">
+      <c r="M29" s="20">
         <v>121204729.31000009</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="15">
         <v>144185592.69</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="15">
         <v>104203702.66999999</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="15">
         <v>155174838.72</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="15">
         <v>115157580.64</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="15">
         <v>157915131.00999999</v>
       </c>
-      <c r="G30" s="23">
+      <c r="G30" s="15">
         <v>142717665.5</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="15">
         <v>132997771.2</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I30" s="15">
         <v>123391429.47</v>
       </c>
-      <c r="J30" s="23">
+      <c r="J30" s="15">
         <v>136704925.10999998</v>
       </c>
-      <c r="K30" s="23">
+      <c r="K30" s="15">
         <v>154152214.01999998</v>
       </c>
-      <c r="L30" s="23">
+      <c r="L30" s="15">
         <v>207438685.44</v>
       </c>
-      <c r="M30" s="23">
+      <c r="M30" s="20">
         <v>135507312.97999999</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="15">
         <v>600</v>
       </c>
-      <c r="C31" s="23">
-        <v>0</v>
-      </c>
-      <c r="D31" s="23">
+      <c r="C31" s="15">
+        <v>0</v>
+      </c>
+      <c r="D31" s="15">
         <v>200</v>
       </c>
-      <c r="E31" s="23">
-        <v>0</v>
-      </c>
-      <c r="F31" s="23">
-        <v>0</v>
-      </c>
-      <c r="G31" s="23">
+      <c r="E31" s="15">
+        <v>0</v>
+      </c>
+      <c r="F31" s="15">
+        <v>0</v>
+      </c>
+      <c r="G31" s="15">
         <v>21.43</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="15">
         <v>538.04999999999995</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="15">
         <v>1000</v>
       </c>
-      <c r="J31" s="23">
+      <c r="J31" s="15">
         <v>34</v>
       </c>
-      <c r="K31" s="23">
-        <v>0</v>
-      </c>
-      <c r="L31" s="23">
-        <v>0</v>
-      </c>
-      <c r="M31" s="23">
+      <c r="K31" s="15">
+        <v>0</v>
+      </c>
+      <c r="L31" s="15">
+        <v>0</v>
+      </c>
+      <c r="M31" s="20">
         <v>12997.410000000002</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="15">
         <v>29647.5</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="15">
         <v>59346.73</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="15">
         <v>117490.34</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="15">
         <v>41462.29</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32" s="15">
         <v>79266.200000000012</v>
       </c>
-      <c r="G32" s="23">
+      <c r="G32" s="15">
         <v>53000.54</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="15">
         <v>47435.98</v>
       </c>
-      <c r="I32" s="23">
+      <c r="I32" s="15">
         <v>50511.27</v>
       </c>
-      <c r="J32" s="23">
+      <c r="J32" s="15">
         <v>28060379.489999998</v>
       </c>
-      <c r="K32" s="23">
+      <c r="K32" s="15">
         <v>85196.49</v>
       </c>
-      <c r="L32" s="23">
+      <c r="L32" s="15">
         <v>29410.87</v>
       </c>
-      <c r="M32" s="23">
+      <c r="M32" s="20">
         <v>9742099.0100000016</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="15">
         <v>61219135.809999995</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="15">
         <v>56023589.880000003</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="15">
         <v>73856971.329999998</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="15">
         <v>64998483.689999998</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="15">
         <v>66029117.120000005</v>
       </c>
-      <c r="G33" s="23">
+      <c r="G33" s="15">
         <v>46757414.640000001</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="15">
         <v>54855574.390000001</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I33" s="15">
         <v>103969814.05</v>
       </c>
-      <c r="J33" s="23">
+      <c r="J33" s="15">
         <v>127414406.69999999</v>
       </c>
-      <c r="K33" s="23">
+      <c r="K33" s="15">
         <v>98711964.5</v>
       </c>
-      <c r="L33" s="23">
+      <c r="L33" s="15">
         <v>127865378.43000001</v>
       </c>
-      <c r="M33" s="23">
+      <c r="M33" s="20">
         <v>202973512.15000001</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="23">
+      <c r="B34" s="15">
         <v>5052452.38</v>
       </c>
-      <c r="C34" s="23">
+      <c r="C34" s="15">
         <v>2340410.9</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="15">
         <v>215121.91999999998</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="15">
         <v>2830860.7800000003</v>
       </c>
-      <c r="F34" s="23">
+      <c r="F34" s="15">
         <v>8956527.7599999998</v>
       </c>
-      <c r="G34" s="23">
+      <c r="G34" s="15">
         <v>8795751.3800000008</v>
       </c>
-      <c r="H34" s="23">
+      <c r="H34" s="15">
         <v>10091293.07</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I34" s="15">
         <v>17304270.280000001</v>
       </c>
-      <c r="J34" s="23">
+      <c r="J34" s="15">
         <v>8560674.1799999997</v>
       </c>
-      <c r="K34" s="23">
+      <c r="K34" s="15">
         <v>6367151.120000001</v>
       </c>
-      <c r="L34" s="23">
+      <c r="L34" s="15">
         <v>4197266.0299999993</v>
       </c>
-      <c r="M34" s="23">
+      <c r="M34" s="20">
         <v>2854585.2700000005</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="23">
-        <v>0</v>
-      </c>
-      <c r="C35" s="23">
-        <v>0</v>
-      </c>
-      <c r="D35" s="23">
-        <v>0</v>
-      </c>
-      <c r="E35" s="23">
-        <v>0</v>
-      </c>
-      <c r="F35" s="23">
-        <v>0</v>
-      </c>
-      <c r="G35" s="23">
-        <v>0</v>
-      </c>
-      <c r="H35" s="23">
-        <v>0</v>
-      </c>
-      <c r="I35" s="23">
-        <v>0</v>
-      </c>
-      <c r="J35" s="23">
-        <v>0</v>
-      </c>
-      <c r="K35" s="23">
+      <c r="B35" s="15">
+        <v>0</v>
+      </c>
+      <c r="C35" s="15">
+        <v>0</v>
+      </c>
+      <c r="D35" s="15">
+        <v>0</v>
+      </c>
+      <c r="E35" s="15">
+        <v>0</v>
+      </c>
+      <c r="F35" s="15">
+        <v>0</v>
+      </c>
+      <c r="G35" s="15">
+        <v>0</v>
+      </c>
+      <c r="H35" s="15">
+        <v>0</v>
+      </c>
+      <c r="I35" s="15">
+        <v>0</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
         <v>1174.45</v>
       </c>
-      <c r="L35" s="23">
-        <v>0</v>
-      </c>
-      <c r="M35" s="23">
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="23">
+      <c r="B36" s="15">
         <v>3682863.6</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C36" s="15">
         <v>3157270.3800000004</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="15">
         <v>3004557.6600000006</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E36" s="15">
         <v>2402480.4200000004</v>
       </c>
-      <c r="F36" s="23">
+      <c r="F36" s="15">
         <v>3057395.3399999994</v>
       </c>
-      <c r="G36" s="23">
+      <c r="G36" s="15">
         <v>2829355.75</v>
       </c>
-      <c r="H36" s="23">
+      <c r="H36" s="15">
         <v>2807272.0999999996</v>
       </c>
-      <c r="I36" s="23">
+      <c r="I36" s="15">
         <v>3984398.61</v>
       </c>
-      <c r="J36" s="23">
+      <c r="J36" s="15">
         <v>1827226.5399999998</v>
       </c>
-      <c r="K36" s="23">
+      <c r="K36" s="15">
         <v>3207404.0799999996</v>
       </c>
-      <c r="L36" s="23">
+      <c r="L36" s="15">
         <v>4505756.8800000008</v>
       </c>
-      <c r="M36" s="23">
+      <c r="M36" s="20">
         <v>2991264.8700000006</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="23">
+      <c r="B37" s="15">
         <v>2110362.39</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="15">
         <v>2893529.69</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="15">
         <v>3481590.98</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="15">
         <v>3318517.08</v>
       </c>
-      <c r="F37" s="23">
+      <c r="F37" s="15">
         <v>3752611.0300000003</v>
       </c>
-      <c r="G37" s="23">
+      <c r="G37" s="15">
         <v>3738818.2499999995</v>
       </c>
-      <c r="H37" s="23">
+      <c r="H37" s="15">
         <v>3557954.9400000004</v>
       </c>
-      <c r="I37" s="23">
+      <c r="I37" s="15">
         <v>2373706.7000000002</v>
       </c>
-      <c r="J37" s="23">
+      <c r="J37" s="15">
         <v>2037979.2999999998</v>
       </c>
-      <c r="K37" s="23">
+      <c r="K37" s="15">
         <v>2879193.49</v>
       </c>
-      <c r="L37" s="23">
+      <c r="L37" s="15">
         <v>2056182.37</v>
       </c>
-      <c r="M37" s="23">
+      <c r="M37" s="20">
         <v>1817864.54</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="23">
+      <c r="B38" s="15">
         <v>199005716.69999999</v>
       </c>
-      <c r="C38" s="23">
+      <c r="C38" s="15">
         <v>70441723.409999996</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="15">
         <v>96896617.140000001</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="15">
         <v>135754448.93000001</v>
       </c>
-      <c r="F38" s="23">
+      <c r="F38" s="15">
         <v>145566001.91</v>
       </c>
-      <c r="G38" s="23">
+      <c r="G38" s="15">
         <v>229563636.81</v>
       </c>
-      <c r="H38" s="23">
+      <c r="H38" s="15">
         <v>136631070.91000003</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I38" s="15">
         <v>113579345.56999999</v>
       </c>
-      <c r="J38" s="23">
+      <c r="J38" s="15">
         <v>110131444.89</v>
       </c>
-      <c r="K38" s="23">
+      <c r="K38" s="15">
         <v>177063284.44</v>
       </c>
-      <c r="L38" s="23">
+      <c r="L38" s="15">
         <v>189303413.03000003</v>
       </c>
-      <c r="M38" s="23">
+      <c r="M38" s="20">
         <v>120517543.2</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="23">
+      <c r="B39" s="15">
         <v>8543427.0600000005</v>
       </c>
-      <c r="C39" s="23">
+      <c r="C39" s="15">
         <v>15990343.560000001</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D39" s="15">
         <v>4388062.26</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="15">
         <v>6883996.2199999997</v>
       </c>
-      <c r="F39" s="23">
+      <c r="F39" s="15">
         <v>10963565.039999999</v>
       </c>
-      <c r="G39" s="23">
+      <c r="G39" s="15">
         <v>5435540.3100000005</v>
       </c>
-      <c r="H39" s="23">
+      <c r="H39" s="15">
         <v>6266963.4399999995</v>
       </c>
-      <c r="I39" s="23">
+      <c r="I39" s="15">
         <v>5432985.3900000006</v>
       </c>
-      <c r="J39" s="23">
+      <c r="J39" s="15">
         <v>7651522.0200000005</v>
       </c>
-      <c r="K39" s="23">
+      <c r="K39" s="15">
         <v>13493235.960000001</v>
       </c>
-      <c r="L39" s="23">
+      <c r="L39" s="15">
         <v>6605300.3099999996</v>
       </c>
-      <c r="M39" s="23">
+      <c r="M39" s="20">
         <v>10341653.550000001</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="23">
+      <c r="B40" s="15">
         <v>6210</v>
       </c>
-      <c r="C40" s="23">
+      <c r="C40" s="15">
         <v>8509.17</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="15">
         <v>1582011.73</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="15">
         <v>831.43</v>
       </c>
-      <c r="F40" s="23">
-        <v>0</v>
-      </c>
-      <c r="G40" s="23">
+      <c r="F40" s="15">
+        <v>0</v>
+      </c>
+      <c r="G40" s="15">
         <v>242.99</v>
       </c>
-      <c r="H40" s="23">
-        <v>0</v>
-      </c>
-      <c r="I40" s="23">
-        <v>0</v>
-      </c>
-      <c r="J40" s="23">
-        <v>0</v>
-      </c>
-      <c r="K40" s="23">
+      <c r="H40" s="15">
+        <v>0</v>
+      </c>
+      <c r="I40" s="15">
+        <v>0</v>
+      </c>
+      <c r="J40" s="15">
+        <v>0</v>
+      </c>
+      <c r="K40" s="15">
         <v>5318.96</v>
       </c>
-      <c r="L40" s="23">
+      <c r="L40" s="15">
         <v>2150</v>
       </c>
-      <c r="M40" s="23">
+      <c r="M40" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="23">
+      <c r="B41" s="15">
         <v>31088951.27</v>
       </c>
-      <c r="C41" s="23">
+      <c r="C41" s="15">
         <v>30106715.939999994</v>
       </c>
-      <c r="D41" s="23">
+      <c r="D41" s="15">
         <v>29018564.340000004</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="15">
         <v>27253451.439999998</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41" s="15">
         <v>22106079.719999991</v>
       </c>
-      <c r="G41" s="23">
+      <c r="G41" s="15">
         <v>30800590.320000004</v>
       </c>
-      <c r="H41" s="23">
+      <c r="H41" s="15">
         <v>31220374.900000006</v>
       </c>
-      <c r="I41" s="23">
+      <c r="I41" s="15">
         <v>35157189.70000001</v>
       </c>
-      <c r="J41" s="23">
+      <c r="J41" s="15">
         <v>33903400.560000002</v>
       </c>
-      <c r="K41" s="23">
+      <c r="K41" s="15">
         <v>28098584.170000009</v>
       </c>
-      <c r="L41" s="23">
+      <c r="L41" s="15">
         <v>48249373.789999984</v>
       </c>
-      <c r="M41" s="23">
+      <c r="M41" s="20">
         <v>55526362.100000001</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="23">
+      <c r="B42" s="15">
         <v>685353621.28999972</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="15">
         <v>530333741.88000011</v>
       </c>
-      <c r="D42" s="23">
+      <c r="D42" s="15">
         <v>738734252.57000005</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="15">
         <v>1039122312.5500001</v>
       </c>
-      <c r="F42" s="23">
+      <c r="F42" s="15">
         <v>854869509.74000013</v>
       </c>
-      <c r="G42" s="23">
+      <c r="G42" s="15">
         <v>733250716.61999989</v>
       </c>
-      <c r="H42" s="23">
+      <c r="H42" s="15">
         <v>701414748.09000027</v>
       </c>
-      <c r="I42" s="23">
+      <c r="I42" s="15">
         <v>701277423.06000018</v>
       </c>
-      <c r="J42" s="23">
+      <c r="J42" s="15">
         <v>721388250.22000003</v>
       </c>
-      <c r="K42" s="23">
+      <c r="K42" s="15">
         <v>784468395.94000018</v>
       </c>
-      <c r="L42" s="23">
+      <c r="L42" s="15">
         <v>869634971.64999986</v>
       </c>
-      <c r="M42" s="23">
+      <c r="M42" s="20">
         <v>910741416.2299999</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="23">
+      <c r="B43" s="15">
         <v>3087836.8600000003</v>
       </c>
-      <c r="C43" s="23">
+      <c r="C43" s="15">
         <v>618366.90999999992</v>
       </c>
-      <c r="D43" s="23">
+      <c r="D43" s="15">
         <v>268864.25</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="15">
         <v>849128.44</v>
       </c>
-      <c r="F43" s="23">
+      <c r="F43" s="15">
         <v>6152260.6800000006</v>
       </c>
-      <c r="G43" s="23">
+      <c r="G43" s="15">
         <v>2653472.1999999997</v>
       </c>
-      <c r="H43" s="23">
+      <c r="H43" s="15">
         <v>1880877.84</v>
       </c>
-      <c r="I43" s="23">
+      <c r="I43" s="15">
         <v>270733.27999999997</v>
       </c>
-      <c r="J43" s="23">
+      <c r="J43" s="15">
         <v>186636.02</v>
       </c>
-      <c r="K43" s="23">
+      <c r="K43" s="15">
         <v>2663074.9000000004</v>
       </c>
-      <c r="L43" s="23">
+      <c r="L43" s="15">
         <v>188753.98999999996</v>
       </c>
-      <c r="M43" s="23">
+      <c r="M43" s="20">
         <v>3991403.0900000003</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="23">
+      <c r="B44" s="15">
         <v>411192.98</v>
       </c>
-      <c r="C44" s="23">
+      <c r="C44" s="15">
         <v>545452.51</v>
       </c>
-      <c r="D44" s="23">
+      <c r="D44" s="15">
         <v>547984.86</v>
       </c>
-      <c r="E44" s="23">
-        <v>0</v>
-      </c>
-      <c r="F44" s="23">
-        <v>0</v>
-      </c>
-      <c r="G44" s="23">
-        <v>0</v>
-      </c>
-      <c r="H44" s="23">
-        <v>0</v>
-      </c>
-      <c r="I44" s="23">
-        <v>0</v>
-      </c>
-      <c r="J44" s="23">
-        <v>0</v>
-      </c>
-      <c r="K44" s="23">
-        <v>0</v>
-      </c>
-      <c r="L44" s="23">
+      <c r="E44" s="15">
+        <v>0</v>
+      </c>
+      <c r="F44" s="15">
+        <v>0</v>
+      </c>
+      <c r="G44" s="15">
+        <v>0</v>
+      </c>
+      <c r="H44" s="15">
+        <v>0</v>
+      </c>
+      <c r="I44" s="15">
+        <v>0</v>
+      </c>
+      <c r="J44" s="15">
+        <v>0</v>
+      </c>
+      <c r="K44" s="15">
+        <v>0</v>
+      </c>
+      <c r="L44" s="15">
         <v>152119.35999999999</v>
       </c>
-      <c r="M44" s="23">
+      <c r="M44" s="20">
         <v>1165579.33</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="23">
+      <c r="B45" s="15">
         <v>8792386.5199999996</v>
       </c>
-      <c r="C45" s="23">
+      <c r="C45" s="15">
         <v>3444741.49</v>
       </c>
-      <c r="D45" s="23">
+      <c r="D45" s="15">
         <v>6418326.6999999993</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E45" s="15">
         <v>2236069.3899999997</v>
       </c>
-      <c r="F45" s="23">
+      <c r="F45" s="15">
         <v>7183480.669999999</v>
       </c>
-      <c r="G45" s="23">
+      <c r="G45" s="15">
         <v>26558134.469999999</v>
       </c>
-      <c r="H45" s="23">
+      <c r="H45" s="15">
         <v>5804709.6399999997</v>
       </c>
-      <c r="I45" s="23">
+      <c r="I45" s="15">
         <v>8667665.5199999996</v>
       </c>
-      <c r="J45" s="23">
+      <c r="J45" s="15">
         <v>8714344.1499999985</v>
       </c>
-      <c r="K45" s="23">
+      <c r="K45" s="15">
         <v>7382449.1500000004</v>
       </c>
-      <c r="L45" s="23">
+      <c r="L45" s="15">
         <v>9870469.709999999</v>
       </c>
-      <c r="M45" s="23">
+      <c r="M45" s="20">
         <v>3789299.58</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="23">
+      <c r="B46" s="15">
         <v>442975.48000000004</v>
       </c>
-      <c r="C46" s="23">
+      <c r="C46" s="15">
         <v>184493.66999999998</v>
       </c>
-      <c r="D46" s="23">
+      <c r="D46" s="15">
         <v>6707702.3200000003</v>
       </c>
-      <c r="E46" s="23">
+      <c r="E46" s="15">
         <v>643792.5</v>
       </c>
-      <c r="F46" s="23">
+      <c r="F46" s="15">
         <v>7779892.8699999992</v>
       </c>
-      <c r="G46" s="23">
+      <c r="G46" s="15">
         <v>3084921.08</v>
       </c>
-      <c r="H46" s="23">
+      <c r="H46" s="15">
         <v>349046.99</v>
       </c>
-      <c r="I46" s="23">
+      <c r="I46" s="15">
         <v>643574.62</v>
       </c>
-      <c r="J46" s="23">
+      <c r="J46" s="15">
         <v>4980919.95</v>
       </c>
-      <c r="K46" s="23">
+      <c r="K46" s="15">
         <v>717982.95000000007</v>
       </c>
-      <c r="L46" s="23">
+      <c r="L46" s="15">
         <v>302083.33</v>
       </c>
-      <c r="M46" s="23">
+      <c r="M46" s="20">
         <v>559819.85</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="23">
+      <c r="B47" s="15">
         <v>1877967721.1699989</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="15">
         <v>598029288.99999976</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="15">
         <v>786729263.57999873</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="15">
         <v>835735233.04999864</v>
       </c>
-      <c r="F47" s="23">
+      <c r="F47" s="15">
         <v>870319344.61000109</v>
       </c>
-      <c r="G47" s="23">
+      <c r="G47" s="15">
         <v>700991256.56999934</v>
       </c>
-      <c r="H47" s="23">
+      <c r="H47" s="15">
         <v>648897089.73999834</v>
       </c>
-      <c r="I47" s="23">
+      <c r="I47" s="15">
         <v>705019598.4600004</v>
       </c>
-      <c r="J47" s="23">
+      <c r="J47" s="15">
         <v>488690922.41999936</v>
       </c>
-      <c r="K47" s="23">
+      <c r="K47" s="15">
         <v>485343915.38000083</v>
       </c>
-      <c r="L47" s="23">
+      <c r="L47" s="15">
         <v>628720327.64999986</v>
       </c>
-      <c r="M47" s="23">
+      <c r="M47" s="20">
         <v>564279989.44999993</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="23">
-        <v>0</v>
-      </c>
-      <c r="C48" s="23">
-        <v>0</v>
-      </c>
-      <c r="D48" s="23">
+      <c r="B48" s="15">
+        <v>0</v>
+      </c>
+      <c r="C48" s="15">
+        <v>0</v>
+      </c>
+      <c r="D48" s="15">
         <v>854754.1</v>
       </c>
-      <c r="E48" s="23">
-        <v>0</v>
-      </c>
-      <c r="F48" s="23">
-        <v>0</v>
-      </c>
-      <c r="G48" s="23">
-        <v>0</v>
-      </c>
-      <c r="H48" s="23">
-        <v>0</v>
-      </c>
-      <c r="I48" s="23">
-        <v>0</v>
-      </c>
-      <c r="J48" s="23">
-        <v>0</v>
-      </c>
-      <c r="K48" s="23">
-        <v>0</v>
-      </c>
-      <c r="L48" s="23">
-        <v>0</v>
-      </c>
-      <c r="M48" s="23">
+      <c r="E48" s="15">
+        <v>0</v>
+      </c>
+      <c r="F48" s="15">
+        <v>0</v>
+      </c>
+      <c r="G48" s="15">
+        <v>0</v>
+      </c>
+      <c r="H48" s="15">
+        <v>0</v>
+      </c>
+      <c r="I48" s="15">
+        <v>0</v>
+      </c>
+      <c r="J48" s="15">
+        <v>0</v>
+      </c>
+      <c r="K48" s="15">
+        <v>0</v>
+      </c>
+      <c r="L48" s="15">
+        <v>0</v>
+      </c>
+      <c r="M48" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="23">
+      <c r="B49" s="15">
         <v>154192.04</v>
       </c>
-      <c r="C49" s="23">
+      <c r="C49" s="15">
         <v>137003.35999999999</v>
       </c>
-      <c r="D49" s="23">
+      <c r="D49" s="15">
         <v>289570.32</v>
       </c>
-      <c r="E49" s="23">
+      <c r="E49" s="15">
         <v>48571.9</v>
       </c>
-      <c r="F49" s="23">
+      <c r="F49" s="15">
         <v>99912</v>
       </c>
-      <c r="G49" s="23">
+      <c r="G49" s="15">
         <v>143632.31</v>
       </c>
-      <c r="H49" s="23">
+      <c r="H49" s="15">
         <v>73770.759999999995</v>
       </c>
-      <c r="I49" s="23">
+      <c r="I49" s="15">
         <v>80807.64</v>
       </c>
-      <c r="J49" s="23">
+      <c r="J49" s="15">
         <v>78364.800000000003</v>
       </c>
-      <c r="K49" s="23">
+      <c r="K49" s="15">
         <v>78947.760000000009</v>
       </c>
-      <c r="L49" s="23">
+      <c r="L49" s="15">
         <v>876946</v>
       </c>
-      <c r="M49" s="23">
+      <c r="M49" s="20">
         <v>30623.9</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="23">
+      <c r="B50" s="15">
         <v>32970.86</v>
       </c>
-      <c r="C50" s="23">
+      <c r="C50" s="15">
         <v>169517</v>
       </c>
-      <c r="D50" s="23">
+      <c r="D50" s="15">
         <v>55704.11</v>
       </c>
-      <c r="E50" s="23">
-        <v>0</v>
-      </c>
-      <c r="F50" s="23">
+      <c r="E50" s="15">
+        <v>0</v>
+      </c>
+      <c r="F50" s="15">
         <v>6042</v>
       </c>
-      <c r="G50" s="23">
+      <c r="G50" s="15">
         <v>23723.4</v>
       </c>
-      <c r="H50" s="23">
+      <c r="H50" s="15">
         <v>2836.56</v>
       </c>
-      <c r="I50" s="23">
-        <v>0</v>
-      </c>
-      <c r="J50" s="23">
-        <v>0</v>
-      </c>
-      <c r="K50" s="23">
+      <c r="I50" s="15">
+        <v>0</v>
+      </c>
+      <c r="J50" s="15">
+        <v>0</v>
+      </c>
+      <c r="K50" s="15">
         <v>7579.0300000000007</v>
       </c>
-      <c r="L50" s="23">
+      <c r="L50" s="15">
         <v>44520.93</v>
       </c>
-      <c r="M50" s="23">
+      <c r="M50" s="20">
         <v>124.79</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="23">
+      <c r="B51" s="15">
         <v>238683095.82000011</v>
       </c>
-      <c r="C51" s="23">
+      <c r="C51" s="15">
         <v>242261845.15000004</v>
       </c>
-      <c r="D51" s="23">
+      <c r="D51" s="15">
         <v>274325000.94999993</v>
       </c>
-      <c r="E51" s="23">
+      <c r="E51" s="15">
         <v>275007893.1099999</v>
       </c>
-      <c r="F51" s="23">
+      <c r="F51" s="15">
         <v>221290592.28000006</v>
       </c>
-      <c r="G51" s="23">
+      <c r="G51" s="15">
         <v>235113502.92000005</v>
       </c>
-      <c r="H51" s="23">
+      <c r="H51" s="15">
         <v>226912516.78999984</v>
       </c>
-      <c r="I51" s="23">
+      <c r="I51" s="15">
         <v>233848057.65000004</v>
       </c>
-      <c r="J51" s="23">
+      <c r="J51" s="15">
         <v>201688553.68999985</v>
       </c>
-      <c r="K51" s="23">
+      <c r="K51" s="15">
         <v>236284073.90000004</v>
       </c>
-      <c r="L51" s="23">
+      <c r="L51" s="15">
         <v>279131614.55000001</v>
       </c>
-      <c r="M51" s="23">
+      <c r="M51" s="20">
         <v>327383031.56000012</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="23">
+      <c r="B52" s="15">
         <v>969963.37999999989</v>
       </c>
-      <c r="C52" s="23">
+      <c r="C52" s="15">
         <v>425815.12</v>
       </c>
-      <c r="D52" s="23">
+      <c r="D52" s="15">
         <v>507128.08999999997</v>
       </c>
-      <c r="E52" s="23">
+      <c r="E52" s="15">
         <v>6196758.79</v>
       </c>
-      <c r="F52" s="23">
+      <c r="F52" s="15">
         <v>4042989.21</v>
       </c>
-      <c r="G52" s="23">
+      <c r="G52" s="15">
         <v>3379799.39</v>
       </c>
-      <c r="H52" s="23">
+      <c r="H52" s="15">
         <v>5305015.4000000004</v>
       </c>
-      <c r="I52" s="23">
+      <c r="I52" s="15">
         <v>2156404.56</v>
       </c>
-      <c r="J52" s="23">
+      <c r="J52" s="15">
         <v>994144.27</v>
       </c>
-      <c r="K52" s="23">
+      <c r="K52" s="15">
         <v>1548400.5</v>
       </c>
-      <c r="L52" s="23">
+      <c r="L52" s="15">
         <v>8351211.9100000001</v>
       </c>
-      <c r="M52" s="23">
+      <c r="M52" s="20">
         <v>1165786.6300000001</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="23">
+      <c r="B53" s="15">
         <v>104378507.78</v>
       </c>
-      <c r="C53" s="23">
+      <c r="C53" s="15">
         <v>22297270.350000001</v>
       </c>
-      <c r="D53" s="23">
+      <c r="D53" s="15">
         <v>93340018.070000008</v>
       </c>
-      <c r="E53" s="23">
+      <c r="E53" s="15">
         <v>72979109.370000005</v>
       </c>
-      <c r="F53" s="23">
+      <c r="F53" s="15">
         <v>111458564.22000001</v>
       </c>
-      <c r="G53" s="23">
+      <c r="G53" s="15">
         <v>57279742.040000007</v>
       </c>
-      <c r="H53" s="23">
+      <c r="H53" s="15">
         <v>45112323.829999998</v>
       </c>
-      <c r="I53" s="23">
+      <c r="I53" s="15">
         <v>60822479.68</v>
       </c>
-      <c r="J53" s="23">
+      <c r="J53" s="15">
         <v>68247574.800000012</v>
       </c>
-      <c r="K53" s="23">
+      <c r="K53" s="15">
         <v>41020380.130000003</v>
       </c>
-      <c r="L53" s="23">
+      <c r="L53" s="15">
         <v>77304474.680000007</v>
       </c>
-      <c r="M53" s="23">
+      <c r="M53" s="20">
         <v>53264623.319999993</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="23">
+      <c r="B54" s="15">
         <v>822431991.17999971</v>
       </c>
-      <c r="C54" s="23">
+      <c r="C54" s="15">
         <v>617094518</v>
       </c>
-      <c r="D54" s="23">
+      <c r="D54" s="15">
         <v>762628088.73000062</v>
       </c>
-      <c r="E54" s="23">
+      <c r="E54" s="15">
         <v>720645967.94999814</v>
       </c>
-      <c r="F54" s="23">
+      <c r="F54" s="15">
         <v>704490932.54000056</v>
       </c>
-      <c r="G54" s="23">
+      <c r="G54" s="15">
         <v>499376213.57999963</v>
       </c>
-      <c r="H54" s="23">
+      <c r="H54" s="15">
         <v>485498710.81999946</v>
       </c>
-      <c r="I54" s="23">
+      <c r="I54" s="15">
         <v>665997476.94999957</v>
       </c>
-      <c r="J54" s="23">
+      <c r="J54" s="15">
         <v>678371265.78000009</v>
       </c>
-      <c r="K54" s="23">
+      <c r="K54" s="15">
         <v>681643010.90999997</v>
       </c>
-      <c r="L54" s="23">
+      <c r="L54" s="15">
         <v>629944916.17000091</v>
       </c>
-      <c r="M54" s="23">
+      <c r="M54" s="20">
         <v>958873165.04999864</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="23">
+      <c r="B55" s="15">
         <v>302954135.35000002</v>
       </c>
-      <c r="C55" s="23">
+      <c r="C55" s="15">
         <v>90605245.820000008</v>
       </c>
-      <c r="D55" s="23">
+      <c r="D55" s="15">
         <v>55193862.310000002</v>
       </c>
-      <c r="E55" s="23">
+      <c r="E55" s="15">
         <v>151808346.97999996</v>
       </c>
-      <c r="F55" s="23">
+      <c r="F55" s="15">
         <v>362544103.95999998</v>
       </c>
-      <c r="G55" s="23">
+      <c r="G55" s="15">
         <v>41129443.590000004</v>
       </c>
-      <c r="H55" s="23">
+      <c r="H55" s="15">
         <v>60173987.460000001</v>
       </c>
-      <c r="I55" s="23">
+      <c r="I55" s="15">
         <v>70603626.719999999</v>
       </c>
-      <c r="J55" s="23">
+      <c r="J55" s="15">
         <v>51709199.949999996</v>
       </c>
-      <c r="K55" s="23">
+      <c r="K55" s="15">
         <v>24807880.610000003</v>
       </c>
-      <c r="L55" s="23">
+      <c r="L55" s="15">
         <v>177152224.53999999</v>
       </c>
-      <c r="M55" s="23">
+      <c r="M55" s="20">
         <v>273679788.19</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="23">
-        <v>0</v>
-      </c>
-      <c r="C56" s="23">
-        <v>0</v>
-      </c>
-      <c r="D56" s="23">
-        <v>0</v>
-      </c>
-      <c r="E56" s="23">
-        <v>0</v>
-      </c>
-      <c r="F56" s="23">
-        <v>0</v>
-      </c>
-      <c r="G56" s="23">
-        <v>0</v>
-      </c>
-      <c r="H56" s="23">
-        <v>0</v>
-      </c>
-      <c r="I56" s="23">
-        <v>0</v>
-      </c>
-      <c r="J56" s="23">
-        <v>0</v>
-      </c>
-      <c r="K56" s="23">
+      <c r="B56" s="15">
+        <v>0</v>
+      </c>
+      <c r="C56" s="15">
+        <v>0</v>
+      </c>
+      <c r="D56" s="15">
+        <v>0</v>
+      </c>
+      <c r="E56" s="15">
+        <v>0</v>
+      </c>
+      <c r="F56" s="15">
+        <v>0</v>
+      </c>
+      <c r="G56" s="15">
+        <v>0</v>
+      </c>
+      <c r="H56" s="15">
+        <v>0</v>
+      </c>
+      <c r="I56" s="15">
+        <v>0</v>
+      </c>
+      <c r="J56" s="15">
+        <v>0</v>
+      </c>
+      <c r="K56" s="15">
         <v>674.95</v>
       </c>
-      <c r="L56" s="23">
-        <v>0</v>
-      </c>
-      <c r="M56" s="23">
+      <c r="L56" s="15">
+        <v>0</v>
+      </c>
+      <c r="M56" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="23">
+      <c r="B57" s="27">
         <v>57807560.349999994</v>
       </c>
-      <c r="C57" s="23">
+      <c r="C57" s="27">
         <v>47408711.269999988</v>
       </c>
-      <c r="D57" s="23">
+      <c r="D57" s="27">
         <v>36710341.110000014</v>
       </c>
-      <c r="E57" s="23">
+      <c r="E57" s="27">
         <v>52895486.369999997</v>
       </c>
-      <c r="F57" s="23">
+      <c r="F57" s="27">
         <v>52392220.159999996</v>
       </c>
-      <c r="G57" s="23">
+      <c r="G57" s="27">
         <v>45224207.86999999</v>
       </c>
-      <c r="H57" s="23">
+      <c r="H57" s="27">
         <v>50240603.250000007</v>
       </c>
-      <c r="I57" s="23">
+      <c r="I57" s="27">
         <v>56353826.419999994</v>
       </c>
-      <c r="J57" s="23">
+      <c r="J57" s="27">
         <v>51253910.500000007</v>
       </c>
-      <c r="K57" s="23">
+      <c r="K57" s="27">
         <v>53776547.949999996</v>
       </c>
-      <c r="L57" s="23">
+      <c r="L57" s="27">
         <v>54233873.179999985</v>
       </c>
-      <c r="M57" s="23">
+      <c r="M57" s="28">
         <v>86318544.070000008</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>